--- a/test1/results.xlsx
+++ b/test1/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,57 +463,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\file\lab\69fee2648ed0efd97bda54f71fc65012</t>
+          <t>C:\file\lab\00b3f50f0fa3c40129826d27b1817ca2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>application/vnd.openxmlformats-officedocument.presentationml.presentation</t>
+          <t>image/vnd.dwg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>0.161</v>
+        <v>0.001</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\file\lab\588df029fba062c1dcabf45c881aa498</t>
+          <t>C:\file\lab\0617bff7dcd1ec730625d4157e9077b6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>application/vnd.openxmlformats-officedocument.presentationml.presentation</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>培训(1次)</t>
-        </is>
-      </c>
+          <t>application/font-sfnt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0.292</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C:\file\lab\5767b522f515d948b3f48f2b5ac04af3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>application/vnd.openxmlformats-officedocument.presentationml.presentation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
